--- a/results/2016年第2季.xlsx
+++ b/results/2016年第2季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7582 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>899,892</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>692,300</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>293,510</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>262,313</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>306,904</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-246,838</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>305,661</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,101,924</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,294,879</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,093,886</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,462,988</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,250,670</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,558,781</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,516,348</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,582,410</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-917,673</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2,087,067</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10,078,897</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,634,666</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>36,164,420</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,549,770</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,363,284</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>779,700</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>444,178</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-720,208</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-2,627,553</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>555,360</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1,614,441</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19,676,160</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>20,408,693</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>48,448,954</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>275</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,456,938</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,022,257</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,086,418</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>955,614</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1,010,399</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-64,484</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-467,261</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>983,224</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10,005,546</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,991,592</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>29,920,015</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>302,226</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>169,690</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>113,499</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>91,157</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>84,283</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-31,739</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>84,008</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>399,070</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>35,194</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,428,650</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>109</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13,593,424</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,364,141</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>759,759</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>643,861</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>626,621</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-670,237</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>192,328</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18,542,459</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,069,296</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>38,714,014</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,166</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-28,154</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-25,234</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-17,558</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-39,947</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6,845</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-81,979</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>46,496</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,571,846</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,399,783</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,040,081</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>705,570</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>786,634</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-886,337</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-206,597</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-8,719</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7,544,727</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,060,494</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>25,590,691</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,383,279</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>311,371</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>159,806</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>125,325</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>326,399</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-148,062</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-141,147</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>174,377</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,144,669</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>974,398</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,709,798</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,990,646</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>950,508</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>559,467</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>408,915</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>711,563</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-569,209</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,031,049</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>268,374</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>12,084,184</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,506,349</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>35,384,164</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,338,177</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>654,118</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>346,093</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>297,624</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>462,742</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-156,037</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-318,296</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>301,163</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,336,607</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,802,077</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10,129,161</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,171,458</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-297,411</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-591,084</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-699,393</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>14,033</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-342,092</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-10,963</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-188,150</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>23,471,364</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,754,293</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>74,976,390</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>247,885</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58,193</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-3,356</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2,006</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>19,313</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20,979</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>19,174</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>510,817</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>498,256</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,385,625</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>202</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15,268,507</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,744,823</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>484,296</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>477,954</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,541,019</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-458,489</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>249,935</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,047,098</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>20,790,382</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,355,750</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>25,323,411</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>489,548</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>99,558</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13,197</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6,806</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-115,781</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-93,520</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>129,219</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-212,728</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,534,622</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,903,814</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,572,896</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,442,813</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>410,590</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>276,398</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>226,094</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>658,571</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-142,002</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-462,079</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>560,663</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3,887,931</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,242,602</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,145,774</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,657,281</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>853,995</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>208,489</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>96,912</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>337,672</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-259,643</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>260,837</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,403,025</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,871,306</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,426,291</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>661,252</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>151,969</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13,901</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19,402</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-23,549</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-35,339</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-33,797</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>444,057</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>164,070</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,126,514</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,015,353</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-60,140</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-178,600</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-155,148</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>275,624</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-196,070</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>11,542</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>86,558</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,641,100</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-2.75</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,147,533</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,150,048</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>373,461</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>77,526</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10,103</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6,121</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-93,696</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-36,337</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-92,418</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>725,638</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>623,005</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,927,915</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>109,965</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>32,942</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15,992</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7,894</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>28,226</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-3,973</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>24,254</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>208,309</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>301,110</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>854,623</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>61,636</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42,011</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-9,708</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-9,877</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6,914</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-23,428</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,220</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-16,515</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>131,976</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.80</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>144,689</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>516,090</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>706,262</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>224,987</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>171,797</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>118,675</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12,514</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-38,720</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-19,860</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-30,164</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1,275,616</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,343,148</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4,127,753</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,292,306</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>602,927</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>177,220</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>147,310</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>133,885</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-97,780</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-52,479</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>31,282</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,811,543</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,999,988</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,445,872</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,708,103</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>547,120</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>202,670</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>182,273</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>403,687</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-24,703</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-392,990</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>387,540</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,448,891</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,777,137</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,765,754</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5,059,962</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>367,748</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-74,202</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>85,832</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-618,312</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-68,552</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>43,003</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-880,941</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>14,693,299</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,319,104</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>22,258,372</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12,203</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9,762</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-56,852</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-43,571</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-45,319</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>56,908</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-48,317</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>16,181</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-9.20</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-8.87</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>22,668</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>467,219</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4,546,669</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>76,125</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-36,487</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-12,722</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>835,233</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-83,034</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-762,827</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>806,344</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10,501,112</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,763,665</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>24,017,732</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,048,276</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>292,277</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>121,714</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>80,251</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-95,234</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-37,809</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-18,618</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-98,269</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,368,323</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>941,177</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,667,032</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>756,774</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>169,689</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60,740</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>38,324</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>172,273</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>5,265</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-7,465</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>162,422</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,306,357</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>195,507</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,720,737</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,696,638</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,533,031</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>239,924</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>65,947</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>896,889</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1,093,083</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-278,013</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>459,128</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>25,817,556</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,080,330</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>43,283,803</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>167,503</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11,443</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2,781</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4,413</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>9,863</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-28,033</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>4,322</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>220,489</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>370,224</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,792,657</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>154,067</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>21,363</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>508,141</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>72,332,708</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11,714,284</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8,262,763</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6,350,625</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>17,586,811</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-4,848,202</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-9,981,369</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12,850,945</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>354,180,480</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>437,708,622</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>671,624,395</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,841,385</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>60,159</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7,148</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-39,202</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>14,335</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-437,399</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>528,512</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-411,351</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>11,706,440</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-1.08</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>11,511,004</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>15,317,651</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>495,296</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-40,438</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-53,981</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-61,246</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>59,579</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-36,901</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>112,740</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22,630</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,857,873</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>967,529</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,589,367</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>387,278</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>205,227</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34,972</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30,672</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>52,660</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-6,159</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>45,961</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>819,321</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>787,428</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,538,654</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>419,047</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>95,736</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60,061</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>38,809</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>239,948</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>7,743</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-224,245</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>239,948</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,261,913</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>23,830</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,517,754</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>227,574</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>41,287</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>11,127</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>11,228</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>38,330</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-3,420</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-41,084</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>35,364</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>225,016</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>259,379</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,014,612</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>424,665</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>110,552</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>59,730</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>50,069</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>34,888</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1,808</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>20,613</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>22,988</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>393,243</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>258,755</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,741,171</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,025,042</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>978,203</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,784,723</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>230,781</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-93,508</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-175,760</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-176,259</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-12,920</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2,935</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2,325</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-33,247</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>915,212</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-9.47</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-6.16</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>783,583</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,683,461</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>410,021</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>35,145</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-26,088</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-29,837</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-14,386</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-132,363</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>69,446</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-90,330</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,600,915</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-2.84</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>892,977</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,622,036</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,477,982</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,347,238</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-250,206</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-360,367</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-74,833</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-830,126</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>175,495</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-241,942</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28,380,170</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-4.41</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,932,200</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>36,342,026</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,015,603</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>360,024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-6,179</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-51,696</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-209,628</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-77,894</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>169,182</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-231,094</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,569,403</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,282,722</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,502,985</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>104,854,989</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>36,304,557</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,791,558</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7,178,712</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11,061,546</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4,270,689</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-8,672,727</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>7,111,047</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>247,385,522</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>155,782,648</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>395,773,777</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,779,614</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>141,354</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-340,669</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-415,624</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>365,301</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-77,522</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-244,491</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>317,867</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,056,435</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>16,795,126</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>28,918,600</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,002,540</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>216,009</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-220,688</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-254,038</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>468,248</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-155,503</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-878,826</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>440,846</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>8,756,924</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.10</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>16,036,625</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>31,651,694</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>66,805,188</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1,555,025</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-3,037,930</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-3,475,528</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5,985,558</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-6,113,892</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2,042,095</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-872,424</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>134,602,925</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>190,044,389</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>349,288,371</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>39.55</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8,933,094</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2,536,718</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,650,657</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>404,972</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3,343,101</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-2,122,002</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-713</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1,654,544</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>57,739,542</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>49,718,878</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>118,386,252</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>635,310</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>91,495</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-20,006</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-75,707</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>324,710</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>14,441</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-73,992</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>324,522</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,785,822</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-4.11</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,780,835</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,588,750</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>922,136,921</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>55,489,841</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20,821,790</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>18,075,096</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>47,064,195</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-69,873,004</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>22,435,832</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>32,108,386</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,133,313,071</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>317,172,144</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,158,380,796</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>27</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,354,089</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>704,231</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>526,411</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>298,898</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-628,931</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>90,585</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>664,620</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-639,169</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13,723,299</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,311,764</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23,544,042</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,064,295</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,179,200</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>464,328</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>123,887</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>898,993</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-707,161</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-118,599</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>582,586</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>64,759,107</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44,524,852</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>100,448,677</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,828,778</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>713,606</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>372,387</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>672,912</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>51,070</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1,356,577</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-53,652</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>32,862</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24,741,770</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,838,257</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>60,282,746</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>155,076</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>33,104</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18,480</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>29,992</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5,419</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-197</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5,019</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>233,639</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>395,110</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,458,010</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,931,313</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,396,420</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1,063,452</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>876,172</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,207,076</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-307,447</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1,036,556</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>293,110</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>29,189,677</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>16,987,388</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>50,730,743</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>31,021,360</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10,213,447</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,703,600</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4,025,872</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>7,336,426</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,473,390</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>484,965</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4,042,282</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>86,033,182</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>104,296,128</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>172,185,905</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,195,429</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,942,203</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12,875,744</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11,333,097</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>13,411,716</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-3,157,894</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-120,502</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>9,975,796</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>109,554,622</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>287,805,345</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>464,111,962</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6,430,561</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>962,385</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>269,166</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>311,504</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>483,057</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-370,156</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>176,335</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>469,478</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>6,718,619</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,624,576</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>15,194,578</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>239,029</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>85,274</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>42,745</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-99,826</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-165,539</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-340</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>75,630</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-165,539</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,463,027</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,973,480</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>140,951,994</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>33,221,362</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30,761,924</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25,833,989</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>24,351,342</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-14,704,017</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-10,510,404</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>23,329,044</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>184,666,899</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>123,975,213</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>447,109,639</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,463,990</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>433,355</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>100,201</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>111,480</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>186,215</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-25,647</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-168,339</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>147,770</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,366,396</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,244,260</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,850,534</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,594,332</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>946,950</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>205,124</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>54,355</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>374,224</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-276,457</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-1,447</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>359,726</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,135,544</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2,008,512</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,970,660</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,839,424</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,422,760</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>627,337</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>527,215</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,413,478</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-993,254</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-192,548</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>413,071</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,345,922</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,265,230</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35,501,730</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>215</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,588,854</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,419,080</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>377,882</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,314,585</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>248,236</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>14,321</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>214,056</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>12,315,856</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,624,652</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>32,330,575</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,006,596</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>293,568</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>148,172</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>94,958</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>195,639</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-628,532</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>464,357</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-436,570</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,421,414</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6,175,604</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,586,289</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>29,734,216</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-1,142,722</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-1,130,686</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-1,272,581</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3,078,456</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>740,236</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-2,072,228</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2,698,756</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>133,968,159</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-2.28</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>103,253,881</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>189,130,775</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>878,043</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-122,213</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-179,519</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-262,576</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>209,807</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-135,401</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-482,114</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3,918</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,559,753</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-2.91</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>30,847,912</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>32,468,532</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>54,969,479</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13,300,015</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4,262,372</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,511,286</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7,003,278</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-5,636,046</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2,106,032</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2,445,150</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>276,899,446</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>149,149,971</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>526,109,753</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>273,684</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>17,712</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-525</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-1,627</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>17,874</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-3,086</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4,488</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>14,799</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,692,993</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,727,454</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,738,451</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>546,077</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>167,406</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78,390</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>54,761</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>11,520</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-8,695</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>13,562</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2,082</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>470,451</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>732,365</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,917,005</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>36,996,517</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8,284,942</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,448,905</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,578,852</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>5,566,428</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-27,061,206</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>11,151,587</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-23,739,956</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>148,150,370</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>207,825,741</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>367,676,873</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,194,508</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>463,278</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>277,095</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>196,704</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>368,107</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-174,501</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-178,127</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>194,608</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,868,596</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,444,672</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,891,804</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>318,973</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>28,258</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-23,452</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-23,337</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-37,230</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>12,305</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>9,597</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-31,220</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>406,371</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>999,785</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,757,927</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5,057,393</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,549,271</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1,001,077</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>847,094</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,817,810</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,762,506</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>101,612</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-109,862</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>22,200,074</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>29,399,177</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>44,445,303</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>83,590,700</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,814,072</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>862,355</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,169,428</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4,924,373</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-1,072,127</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-2,798,505</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>4,856,486</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>86,119,185</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,933,637</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>128,843,823</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,315,421</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>833,352</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>167,366</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>125,129</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>505,522</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-2,515</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-202,320</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>412,589</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,702,701</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,541,406</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,280,957</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,135,586</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>927,484</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>363,699</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>219,605</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>456,708</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>247,526</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-88,341</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>368,652</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,771,568</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,525,584</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26,298,422</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6,661,581</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>298,549</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88,079</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>74,093</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>453,138</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-2,030</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-554,291</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>451,081</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>6,857,153</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>318,524</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>8,928,781</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>847,079</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>314,225</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>65,925</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>45,343</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>67,483</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-264,268</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>321,488</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-108,948</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3,059,477</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,422,696</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,191,456</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>734,936</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>143,864</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-114,026</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-128,794</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-72,146</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>10,524</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-32,855</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-96,826</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,813,397</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.69</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,410,448</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,531,870</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,630,479</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>537,860</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>283,303</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>200,971</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-6,688</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-13,039</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1,916,556</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-62,968</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>6,392,300</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,400,837</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>9,781,622</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>249,463</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>205,237</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-93,391</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-58,369</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>244,569</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-1,055,012</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>924,404</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-799,954</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,566,352</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-2.07</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>5,419,336</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>7,391,610</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15,470,283</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,604,988</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,809,598</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,547,923</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,356,405</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-722,010</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1,188,909</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,591,730</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15,920,438</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,660,641</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29,700,323</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>197</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,728,220</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,318,677</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,235,640</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>840,112</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,034,464</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-810,467</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-1,467,090</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1,852,755</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>27,323,159</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,401,355</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>46,796,718</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,814,079</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,453,698</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,186,115</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,185,150</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,536,558</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-223,808</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-406,411</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,381,382</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>37,047,494</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>18,827,550</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>91,361,236</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>945,275</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>86,931</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-12,828</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>14,090</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-86,047</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10,373</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>155,091</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-86,953</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,493,450</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>987,881</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,220,322</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,329,346</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,104,658</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>370,901</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>314,901</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-361,848</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-282,847</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>766,123</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-484,645</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,267,366</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,943,193</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>35,840,663</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>172,934,747</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,625,477</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,415,895</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,056,524</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-23,909,200</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-485,765</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>12,720,815</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-24,474,054</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>204,952,580</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>22,653,985</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>312,220,563</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>279</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>103,343,297</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14,514,864</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3,990,423</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,201,825</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>7,650,012</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-1,264,954</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-255,866</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>6,626,005</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>155,032,263</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,517,830</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>322,071,105</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>31,520,968</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,151,202</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,377,416</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>735,823</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1,798,615</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-5,238</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,678,120</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1,437,730</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>64,642,744</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,303,846</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>95,312,971</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>244</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,712,512</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,307,099</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,677,758</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,469,206</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,311,710</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-2,453,850</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1,502</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>964,390</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14,444,018</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,866,350</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>36,879,079</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,021,125</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,103,052</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>362,631</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>427,076</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,798,356</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-85,068</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-10,302</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1,758,989</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12,164,994</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,754,161</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,992,662</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>127,843</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>38,330</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-15,639</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-7,674</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10,117</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-32,631</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>8,752</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>365,878</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>7,469</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,020,841</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,361,884</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>207,169</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78,183</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>65,140</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-638,278</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-2,025</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>430,648</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-638,278</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,656,463</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>366,022</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,573,953</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>256,780</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>234,474</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>5,175</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7,904</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>52,719</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-1,410</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>51,207</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>271,577</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>55,518</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,939,067</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
